--- a/simulation_data/iterative_algorithm/i_error_level_5_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_5_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.97289973604757</v>
+        <v>89.85415665062041</v>
       </c>
       <c r="D2" t="n">
-        <v>12.12657978488381</v>
+        <v>11.57039578982648</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.84975742834047</v>
+        <v>88.1850612956826</v>
       </c>
       <c r="D3" t="n">
-        <v>13.06056519302008</v>
+        <v>11.37997240808844</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.05822232047161</v>
+        <v>88.01041777476993</v>
       </c>
       <c r="D4" t="n">
-        <v>12.05387741428534</v>
+        <v>12.2022648556205</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.60498060215787</v>
+        <v>87.4126030767372</v>
       </c>
       <c r="D5" t="n">
-        <v>13.68316311651811</v>
+        <v>13.58572202285209</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>83.41238656646857</v>
+        <v>85.31000427995482</v>
       </c>
       <c r="D6" t="n">
-        <v>14.18370991914889</v>
+        <v>12.57397397032716</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.17802396213015</v>
+        <v>83.69979294552148</v>
       </c>
       <c r="D7" t="n">
-        <v>12.96168135867339</v>
+        <v>12.22192405470301</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.09925107843466</v>
+        <v>84.97283123811239</v>
       </c>
       <c r="D8" t="n">
-        <v>10.97004291837279</v>
+        <v>12.82394007089889</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.08618790461925</v>
+        <v>81.64485739844154</v>
       </c>
       <c r="D9" t="n">
-        <v>13.06494840432631</v>
+        <v>11.89290753609009</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.98006537374903</v>
+        <v>83.2086537603109</v>
       </c>
       <c r="D10" t="n">
-        <v>12.88706558619989</v>
+        <v>12.89105462763619</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>78.78589470679385</v>
+        <v>81.89800825519998</v>
       </c>
       <c r="D11" t="n">
-        <v>11.2445754933296</v>
+        <v>13.93281699806416</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.5609381846828</v>
+        <v>80.20936233590842</v>
       </c>
       <c r="D12" t="n">
-        <v>12.38800668853258</v>
+        <v>11.25577826548771</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>76.1117805836563</v>
+        <v>79.32109985675987</v>
       </c>
       <c r="D13" t="n">
-        <v>12.79561841806752</v>
+        <v>11.73869588217192</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.97181377330696</v>
+        <v>77.96854562677738</v>
       </c>
       <c r="D14" t="n">
-        <v>11.89646709647933</v>
+        <v>10.72765899337214</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.44439644366551</v>
+        <v>76.82993295580771</v>
       </c>
       <c r="D15" t="n">
-        <v>12.71729616520975</v>
+        <v>11.63002088544167</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.68621460851514</v>
+        <v>73.75195445810827</v>
       </c>
       <c r="D16" t="n">
-        <v>11.51958705486912</v>
+        <v>12.05813766294777</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.62844021329985</v>
+        <v>74.08970481668727</v>
       </c>
       <c r="D17" t="n">
-        <v>13.07075325974558</v>
+        <v>13.65518353922396</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>72.96116525689949</v>
+        <v>75.18579791966346</v>
       </c>
       <c r="D18" t="n">
-        <v>12.71368767361267</v>
+        <v>13.35316348788019</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.82186055220878</v>
+        <v>71.06409947527969</v>
       </c>
       <c r="D19" t="n">
-        <v>15.21673548930267</v>
+        <v>13.12970807013286</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>69.6281133472976</v>
+        <v>72.73727457161152</v>
       </c>
       <c r="D20" t="n">
-        <v>14.13689419091946</v>
+        <v>12.43313708931686</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.84267658766494</v>
+        <v>70.59007678167852</v>
       </c>
       <c r="D21" t="n">
-        <v>13.42553005811962</v>
+        <v>12.63837354696351</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.08246065726519</v>
+        <v>72.08957684045647</v>
       </c>
       <c r="D22" t="n">
-        <v>12.91673460673403</v>
+        <v>11.82650621756726</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.76159568015485</v>
+        <v>67.12854315142189</v>
       </c>
       <c r="D23" t="n">
-        <v>14.4875683394085</v>
+        <v>12.59525231483564</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.20761715086641</v>
+        <v>66.85567455554313</v>
       </c>
       <c r="D24" t="n">
-        <v>12.61355485650679</v>
+        <v>10.75963590312797</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.69145238369134</v>
+        <v>66.03023100701421</v>
       </c>
       <c r="D25" t="n">
-        <v>13.06005296361425</v>
+        <v>12.37321710339802</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.86477610065816</v>
+        <v>66.500423082993</v>
       </c>
       <c r="D26" t="n">
-        <v>11.25784217622696</v>
+        <v>12.53007353459722</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.4351893638426</v>
+        <v>65.17567576323989</v>
       </c>
       <c r="D27" t="n">
-        <v>13.26384883227209</v>
+        <v>13.62259602661973</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.89274284543666</v>
+        <v>62.74651607157587</v>
       </c>
       <c r="D28" t="n">
-        <v>12.46009388510446</v>
+        <v>12.52904966928854</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.52353326147676</v>
+        <v>60.80488449742829</v>
       </c>
       <c r="D29" t="n">
-        <v>13.84006175197256</v>
+        <v>13.87757623379244</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.65592856644915</v>
+        <v>63.06736660418785</v>
       </c>
       <c r="D30" t="n">
-        <v>12.54593661696174</v>
+        <v>13.88365658129968</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.5720554748066</v>
+        <v>61.83850759677975</v>
       </c>
       <c r="D31" t="n">
-        <v>11.68300308119529</v>
+        <v>12.83278424194686</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>56.35920557381681</v>
+        <v>59.55833805518279</v>
       </c>
       <c r="D32" t="n">
-        <v>14.05745472704016</v>
+        <v>12.874494398265</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.65377556689996</v>
+        <v>60.58561319802694</v>
       </c>
       <c r="D33" t="n">
-        <v>12.86270518722849</v>
+        <v>12.83688253182999</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.40391284758078</v>
+        <v>58.24362961037708</v>
       </c>
       <c r="D34" t="n">
-        <v>13.54439370970056</v>
+        <v>13.79511826870773</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.73323828251625</v>
+        <v>56.27757174064472</v>
       </c>
       <c r="D35" t="n">
-        <v>13.01854843674112</v>
+        <v>13.13794366301877</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.11680770617176</v>
+        <v>57.40463487081566</v>
       </c>
       <c r="D36" t="n">
-        <v>14.49508510047901</v>
+        <v>13.296863172846</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.94674133738083</v>
+        <v>55.18359590291061</v>
       </c>
       <c r="D37" t="n">
-        <v>13.42509911845375</v>
+        <v>11.74472493540486</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.68596690682151</v>
+        <v>52.16013556951175</v>
       </c>
       <c r="D38" t="n">
-        <v>13.41875476369788</v>
+        <v>13.29732645635532</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.30463380441422</v>
+        <v>51.17042911418544</v>
       </c>
       <c r="D39" t="n">
-        <v>13.62726583311529</v>
+        <v>13.38166471002869</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>55.78397114153499</v>
+        <v>50.63859032200005</v>
       </c>
       <c r="D40" t="n">
-        <v>12.51691712771314</v>
+        <v>11.8482689622565</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.35867355516501</v>
+        <v>51.2146683641557</v>
       </c>
       <c r="D41" t="n">
-        <v>11.31195393846741</v>
+        <v>11.64938124878771</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.14623107986956</v>
+        <v>50.0103566234534</v>
       </c>
       <c r="D42" t="n">
-        <v>14.35842751781312</v>
+        <v>11.72905046770357</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.31380916949863</v>
+        <v>49.33926565639499</v>
       </c>
       <c r="D43" t="n">
-        <v>13.07301736600151</v>
+        <v>14.15724020780801</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.20747672787904</v>
+        <v>46.55267130405492</v>
       </c>
       <c r="D44" t="n">
-        <v>12.8879093403379</v>
+        <v>11.45681158177063</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.68292850603812</v>
+        <v>48.09860358939451</v>
       </c>
       <c r="D45" t="n">
-        <v>12.84226276705944</v>
+        <v>13.02371808000932</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.68053460380791</v>
+        <v>44.43279883737195</v>
       </c>
       <c r="D46" t="n">
-        <v>11.9699702713024</v>
+        <v>11.74519700893013</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.9146557755583</v>
+        <v>45.67028309814038</v>
       </c>
       <c r="D47" t="n">
-        <v>13.7892085960003</v>
+        <v>13.51650983175165</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.83109985600385</v>
+        <v>43.72890164711993</v>
       </c>
       <c r="D48" t="n">
-        <v>13.49605522044355</v>
+        <v>12.3156077556367</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.2798566470034</v>
+        <v>41.33237439662046</v>
       </c>
       <c r="D49" t="n">
-        <v>12.16058489707109</v>
+        <v>11.10052121975757</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.18123416705296</v>
+        <v>40.06107830861844</v>
       </c>
       <c r="D50" t="n">
-        <v>12.48693369415471</v>
+        <v>12.53439760191834</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.79496522250534</v>
+        <v>40.75023384817693</v>
       </c>
       <c r="D51" t="n">
-        <v>12.58399848093373</v>
+        <v>13.79600969429207</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.84631867801397</v>
+        <v>41.23344858187609</v>
       </c>
       <c r="D52" t="n">
-        <v>12.7619967596225</v>
+        <v>12.23481797922116</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>36.22383279088099</v>
+        <v>39.11985295666054</v>
       </c>
       <c r="D53" t="n">
-        <v>11.29746141602966</v>
+        <v>11.5742732545161</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.28881254197504</v>
+        <v>38.1378130481323</v>
       </c>
       <c r="D54" t="n">
-        <v>14.14960919149109</v>
+        <v>12.54430783892092</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.97650906207612</v>
+        <v>37.31965925547749</v>
       </c>
       <c r="D55" t="n">
-        <v>12.19652298847072</v>
+        <v>12.58971515852363</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>40.71287514548164</v>
+        <v>34.68036563700277</v>
       </c>
       <c r="D56" t="n">
-        <v>11.7901368022426</v>
+        <v>12.07932168882324</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.12255995426056</v>
+        <v>32.19441693040282</v>
       </c>
       <c r="D57" t="n">
-        <v>11.70910374471617</v>
+        <v>11.49123694585601</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.79136071591413</v>
+        <v>35.626314720661</v>
       </c>
       <c r="D58" t="n">
-        <v>13.09746766255703</v>
+        <v>12.30881183152549</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.36439274008769</v>
+        <v>35.01801795400704</v>
       </c>
       <c r="D59" t="n">
-        <v>12.29247291865421</v>
+        <v>11.21369549370891</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.10322731421415</v>
+        <v>34.36206171447631</v>
       </c>
       <c r="D60" t="n">
-        <v>13.88039181663045</v>
+        <v>13.19593388867528</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.68835845695147</v>
+        <v>31.48363798321758</v>
       </c>
       <c r="D61" t="n">
-        <v>12.89305491773948</v>
+        <v>10.77624573784212</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.76716849971982</v>
+        <v>29.20839321558563</v>
       </c>
       <c r="D62" t="n">
-        <v>12.10679085023071</v>
+        <v>12.87767375784733</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.3697498601071</v>
+        <v>31.30882212747187</v>
       </c>
       <c r="D63" t="n">
-        <v>12.48698472229617</v>
+        <v>13.43491346746572</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.92959033876302</v>
+        <v>28.16656302307996</v>
       </c>
       <c r="D64" t="n">
-        <v>13.1590592874838</v>
+        <v>11.83693561927023</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.71336213682293</v>
+        <v>26.47674484636314</v>
       </c>
       <c r="D65" t="n">
-        <v>12.88852075186762</v>
+        <v>10.41989002767234</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.4435805979685</v>
+        <v>25.20366370756792</v>
       </c>
       <c r="D66" t="n">
-        <v>12.98627211209178</v>
+        <v>12.20764861631051</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.27540638884168</v>
+        <v>24.10692649449363</v>
       </c>
       <c r="D67" t="n">
-        <v>12.6221920660719</v>
+        <v>15.37542194847517</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.59570225055452</v>
+        <v>24.50952337407448</v>
       </c>
       <c r="D68" t="n">
-        <v>12.73208807419227</v>
+        <v>11.26817779341878</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.19561260864835</v>
+        <v>24.52028231824583</v>
       </c>
       <c r="D69" t="n">
-        <v>13.46384087815118</v>
+        <v>12.11991283826513</v>
       </c>
     </row>
   </sheetData>
